--- a/results/insertion.xlsx
+++ b/results/insertion.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s\PycharmProjects\sorts\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{90ABBC8C-007F-4B88-BCBA-2F02B75381D3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="straight" sheetId="1" r:id="rId1"/>
     <sheet name="reversed" sheetId="2" r:id="rId2"/>
     <sheet name="sorted" sheetId="3" r:id="rId3"/>
     <sheet name="partly_sorted" sheetId="4" r:id="rId4"/>
+    <sheet name="same_elements" sheetId="5" r:id="rId5"/>
+    <sheet name="partly_same" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>byte</t>
   </si>
@@ -34,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +80,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -118,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +166,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +218,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -386,21 +438,21 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.000193</v>
+        <v>1.93E-4</v>
       </c>
       <c r="E2">
-        <v>0.0012932</v>
+        <v>1.2932E-3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -409,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -420,10 +472,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0004006</v>
+        <v>4.0059999999999998E-4</v>
       </c>
       <c r="E3">
-        <v>0.001602</v>
+        <v>1.6019999999999999E-3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -432,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -440,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001074</v>
+        <v>1.0739999999999999E-4</v>
       </c>
       <c r="D4">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E4">
-        <v>0.0021018</v>
+        <v>2.1018E-3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -455,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -466,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001008</v>
+        <v>1.008E-4</v>
       </c>
       <c r="E5">
-        <v>0.0022024</v>
+        <v>2.2024000000000002E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -484,14 +536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -511,7 +563,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -522,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.280000000000001e-05</v>
+        <v>9.2800000000000006E-5</v>
       </c>
       <c r="E2">
-        <v>0.0012016</v>
+        <v>1.2015999999999999E-3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -534,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -545,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.98e-05</v>
+        <v>9.98E-5</v>
       </c>
       <c r="E3">
-        <v>0.001201</v>
+        <v>1.201E-3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -557,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -571,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001802</v>
+        <v>1.802E-3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -580,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -591,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001002</v>
+        <v>1.002E-4</v>
       </c>
       <c r="E5">
-        <v>0.0011012</v>
+        <v>1.1012000000000001E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -609,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -636,7 +688,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -647,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002004</v>
+        <v>2.0039999999999999E-4</v>
       </c>
       <c r="E2">
-        <v>0.0013012</v>
+        <v>1.3012E-3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -659,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -670,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001002</v>
+        <v>1.002E-4</v>
       </c>
       <c r="E3">
-        <v>0.0012014</v>
+        <v>1.2014E-3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -682,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -693,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.98e-05</v>
+        <v>9.98E-5</v>
       </c>
       <c r="E4">
-        <v>0.0021022</v>
+        <v>2.1021999999999998E-3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -705,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -716,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001002</v>
+        <v>1.002E-4</v>
       </c>
       <c r="E5">
-        <v>0.0012012</v>
+        <v>1.2011999999999999E-3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -734,14 +786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -761,7 +813,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -772,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="E2">
-        <v>0.0013014</v>
+        <v>1.3014000000000001E-3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -784,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -795,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001002</v>
+        <v>1.002E-4</v>
       </c>
       <c r="E3">
-        <v>0.0012012</v>
+        <v>1.2011999999999999E-3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -807,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -818,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="E4">
-        <v>0.001902</v>
+        <v>1.902E-3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -830,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -841,10 +893,262 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001</v>
+        <v>1E-4</v>
       </c>
       <c r="E5">
-        <v>0.0013012</v>
+        <v>1.3012E-3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54224629-11D2-4C40-80BD-A7E6F4FAAB9C}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1E-3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1E-3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1.0009999999999999E-3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2ECE605-0B17-4A87-BD5B-6FF851D95726}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.89917</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.4002000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.94217</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1.8001E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.2622</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1.7002E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.9111689999999999</v>
       </c>
       <c r="F5">
         <v>0</v>
